--- a/contracts/electricite-de-strasbourg/tarif-bleu-peak-off-peak/Option_HPHC.xlsx
+++ b/contracts/electricite-de-strasbourg/tarif-bleu-peak-off-peak/Option_HPHC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="50">
   <si>
     <t xml:space="preserve">DATE_DEBUT</t>
   </si>
@@ -37,13 +37,7 @@
     <t xml:space="preserve">PART_FIXE_TTC</t>
   </si>
   <si>
-    <t xml:space="preserve">PART_VARIABLE_HC_HT</t>
-  </si>
-  <si>
     <t xml:space="preserve">PART_VARIABLE_HC_TTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PART_VARIABLE_HP_HT</t>
   </si>
   <si>
     <t xml:space="preserve">PART_VARIABLE_HP_TTC</t>
@@ -387,14 +381,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+      <selection pane="bottomRight" activeCell="F175" activeCellId="0" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,10 +398,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,19 +424,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>6</v>
@@ -453,19 +439,19 @@
         <f aca="false">IF(D2=0,"",12*D2)</f>
         <v/>
       </c>
+      <c r="F2" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G2" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I2" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>9</v>
@@ -474,19 +460,19 @@
         <f aca="false">IF(D3=0,"",12*D3)</f>
         <v/>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G3" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I3" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12</v>
@@ -495,19 +481,19 @@
         <f aca="false">IF(D4=0,"",12*D4)</f>
         <v/>
       </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G4" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I4" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>15</v>
@@ -516,19 +502,19 @@
         <f aca="false">IF(D5=0,"",12*D5)</f>
         <v/>
       </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G5" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I5" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>18</v>
@@ -537,19 +523,19 @@
         <f aca="false">IF(D6=0,"",12*D6)</f>
         <v/>
       </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G6" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I6" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>24</v>
@@ -558,19 +544,19 @@
         <f aca="false">IF(D7=0,"",12*D7)</f>
         <v/>
       </c>
+      <c r="F7" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G7" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I7" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>30</v>
@@ -579,19 +565,19 @@
         <f aca="false">IF(D8=0,"",12*D8)</f>
         <v/>
       </c>
+      <c r="F8" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G8" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I8" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>36</v>
@@ -600,19 +586,19 @@
         <f aca="false">IF(D9=0,"",12*D9)</f>
         <v/>
       </c>
+      <c r="F9" s="1" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="G9" s="1" t="n">
-        <v>0.0964</v>
-      </c>
-      <c r="I9" s="1" t="n">
         <v>0.1391</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>6</v>
@@ -621,19 +607,19 @@
         <f aca="false">IF(D10=0,"",12*D10)</f>
         <v/>
       </c>
+      <c r="F10" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G10" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I10" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>9</v>
@@ -642,19 +628,19 @@
         <f aca="false">IF(D11=0,"",12*D11)</f>
         <v/>
       </c>
+      <c r="F11" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G11" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I11" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>12</v>
@@ -663,19 +649,19 @@
         <f aca="false">IF(D12=0,"",12*D12)</f>
         <v/>
       </c>
+      <c r="F12" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G12" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I12" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>15</v>
@@ -684,19 +670,19 @@
         <f aca="false">IF(D13=0,"",12*D13)</f>
         <v/>
       </c>
+      <c r="F13" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G13" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I13" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>18</v>
@@ -705,19 +691,19 @@
         <f aca="false">IF(D14=0,"",12*D14)</f>
         <v/>
       </c>
+      <c r="F14" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G14" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I14" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>24</v>
@@ -726,19 +712,19 @@
         <f aca="false">IF(D15=0,"",12*D15)</f>
         <v/>
       </c>
+      <c r="F15" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G15" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I15" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>30</v>
@@ -747,19 +733,19 @@
         <f aca="false">IF(D16=0,"",12*D16)</f>
         <v/>
       </c>
+      <c r="F16" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G16" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I16" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>36</v>
@@ -768,19 +754,19 @@
         <f aca="false">IF(D17=0,"",12*D17)</f>
         <v/>
       </c>
+      <c r="F17" s="1" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="G17" s="1" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="I17" s="1" t="n">
         <v>0.1466</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>6</v>
@@ -789,19 +775,19 @@
         <f aca="false">IF(D18=0,"",12*D18)</f>
         <v/>
       </c>
+      <c r="F18" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G18" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I18" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>9</v>
@@ -810,19 +796,19 @@
         <f aca="false">IF(D19=0,"",12*D19)</f>
         <v/>
       </c>
+      <c r="F19" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G19" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I19" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>12</v>
@@ -831,19 +817,19 @@
         <f aca="false">IF(D20=0,"",12*D20)</f>
         <v/>
       </c>
+      <c r="F20" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G20" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I20" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>15</v>
@@ -852,19 +838,19 @@
         <f aca="false">IF(D21=0,"",12*D21)</f>
         <v/>
       </c>
+      <c r="F21" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G21" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I21" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>18</v>
@@ -873,19 +859,19 @@
         <f aca="false">IF(D22=0,"",12*D22)</f>
         <v/>
       </c>
+      <c r="F22" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G22" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I22" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>24</v>
@@ -894,19 +880,19 @@
         <f aca="false">IF(D23=0,"",12*D23)</f>
         <v/>
       </c>
+      <c r="F23" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G23" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I23" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>30</v>
@@ -915,19 +901,19 @@
         <f aca="false">IF(D24=0,"",12*D24)</f>
         <v/>
       </c>
+      <c r="F24" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G24" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I24" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>36</v>
@@ -936,19 +922,19 @@
         <f aca="false">IF(D25=0,"",12*D25)</f>
         <v/>
       </c>
+      <c r="F25" s="1" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="G25" s="1" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I25" s="1" t="n">
         <v>0.1533</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>6</v>
@@ -960,19 +946,19 @@
         <f aca="false">IF(D26=0,"",12*D26)</f>
         <v>94.44</v>
       </c>
+      <c r="F26" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G26" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I26" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>9</v>
@@ -984,19 +970,19 @@
         <f aca="false">IF(D27=0,"",12*D27)</f>
         <v>126.48</v>
       </c>
+      <c r="F27" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G27" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I27" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>12</v>
@@ -1008,19 +994,19 @@
         <f aca="false">IF(D28=0,"",12*D28)</f>
         <v>204.72</v>
       </c>
+      <c r="F28" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G28" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I28" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>15</v>
@@ -1032,19 +1018,19 @@
         <f aca="false">IF(D29=0,"",12*D29)</f>
         <v>237.24</v>
       </c>
+      <c r="F29" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G29" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I29" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>18</v>
@@ -1056,19 +1042,19 @@
         <f aca="false">IF(D30=0,"",12*D30)</f>
         <v>266.88</v>
       </c>
+      <c r="F30" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G30" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I30" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>24</v>
@@ -1080,19 +1066,19 @@
         <f aca="false">IF(D31=0,"",12*D31)</f>
         <v>560.16</v>
       </c>
+      <c r="F31" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G31" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I31" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>30</v>
@@ -1104,19 +1090,19 @@
         <f aca="false">IF(D32=0,"",12*D32)</f>
         <v>661.92</v>
       </c>
+      <c r="F32" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G32" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I32" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>36</v>
@@ -1128,19 +1114,19 @@
         <f aca="false">IF(D33=0,"",12*D33)</f>
         <v>761.4</v>
       </c>
+      <c r="F33" s="1" t="n">
+        <v>0.115</v>
+      </c>
       <c r="G33" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="I33" s="1" t="n">
         <v>0.1637</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>6</v>
@@ -1149,19 +1135,19 @@
         <f aca="false">IF(D34=0,"",12*D34)</f>
         <v/>
       </c>
+      <c r="F34" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G34" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I34" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>9</v>
@@ -1170,19 +1156,19 @@
         <f aca="false">IF(D35=0,"",12*D35)</f>
         <v/>
       </c>
+      <c r="F35" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G35" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I35" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>12</v>
@@ -1191,19 +1177,19 @@
         <f aca="false">IF(D36=0,"",12*D36)</f>
         <v/>
       </c>
+      <c r="F36" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G36" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I36" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>15</v>
@@ -1212,19 +1198,19 @@
         <f aca="false">IF(D37=0,"",12*D37)</f>
         <v/>
       </c>
+      <c r="F37" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G37" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I37" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>18</v>
@@ -1233,19 +1219,19 @@
         <f aca="false">IF(D38=0,"",12*D38)</f>
         <v/>
       </c>
+      <c r="F38" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G38" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I38" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>24</v>
@@ -1254,19 +1240,19 @@
         <f aca="false">IF(D39=0,"",12*D39)</f>
         <v/>
       </c>
+      <c r="F39" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G39" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I39" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>30</v>
@@ -1275,19 +1261,19 @@
         <f aca="false">IF(D40=0,"",12*D40)</f>
         <v/>
       </c>
+      <c r="F40" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G40" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I40" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>36</v>
@@ -1296,19 +1282,19 @@
         <f aca="false">IF(D41=0,"",12*D41)</f>
         <v/>
       </c>
+      <c r="F41" s="1" t="n">
+        <v>0.127</v>
+      </c>
       <c r="G41" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I41" s="1" t="n">
         <v>0.156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>6</v>
@@ -1317,19 +1303,19 @@
         <f aca="false">IF(D42=0,"",12*D42)</f>
         <v/>
       </c>
+      <c r="F42" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G42" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I42" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>9</v>
@@ -1338,19 +1324,19 @@
         <f aca="false">IF(D43=0,"",12*D43)</f>
         <v/>
       </c>
+      <c r="F43" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G43" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I43" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>12</v>
@@ -1359,19 +1345,19 @@
         <f aca="false">IF(D44=0,"",12*D44)</f>
         <v/>
       </c>
+      <c r="F44" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G44" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I44" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>15</v>
@@ -1380,19 +1366,19 @@
         <f aca="false">IF(D45=0,"",12*D45)</f>
         <v/>
       </c>
+      <c r="F45" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G45" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I45" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>18</v>
@@ -1401,19 +1387,19 @@
         <f aca="false">IF(D46=0,"",12*D46)</f>
         <v/>
       </c>
+      <c r="F46" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G46" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I46" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>24</v>
@@ -1422,19 +1408,19 @@
         <f aca="false">IF(D47=0,"",12*D47)</f>
         <v/>
       </c>
+      <c r="F47" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G47" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I47" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>30</v>
@@ -1443,19 +1429,19 @@
         <f aca="false">IF(D48=0,"",12*D48)</f>
         <v/>
       </c>
+      <c r="F48" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G48" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I48" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>36</v>
@@ -1464,19 +1450,19 @@
         <f aca="false">IF(D49=0,"",12*D49)</f>
         <v/>
       </c>
+      <c r="F49" s="1" t="n">
+        <v>0.1252</v>
+      </c>
       <c r="G49" s="1" t="n">
-        <v>0.1252</v>
-      </c>
-      <c r="I49" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -1485,19 +1471,19 @@
         <f aca="false">IF(D50=0,"",12*D50)</f>
         <v/>
       </c>
+      <c r="F50" s="1" t="n">
+        <v>0.1245</v>
+      </c>
       <c r="G50" s="1" t="n">
-        <v>0.1245</v>
-      </c>
-      <c r="I50" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>9</v>
@@ -1506,19 +1492,19 @@
         <f aca="false">IF(D51=0,"",12*D51)</f>
         <v/>
       </c>
+      <c r="F51" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G51" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I51" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>12</v>
@@ -1527,19 +1513,19 @@
         <f aca="false">IF(D52=0,"",12*D52)</f>
         <v/>
       </c>
+      <c r="F52" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G52" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I52" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>15</v>
@@ -1548,19 +1534,19 @@
         <f aca="false">IF(D53=0,"",12*D53)</f>
         <v/>
       </c>
+      <c r="F53" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G53" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I53" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>18</v>
@@ -1569,19 +1555,19 @@
         <f aca="false">IF(D54=0,"",12*D54)</f>
         <v/>
       </c>
+      <c r="F54" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G54" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I54" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>24</v>
@@ -1590,19 +1576,19 @@
         <f aca="false">IF(D55=0,"",12*D55)</f>
         <v/>
       </c>
+      <c r="F55" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G55" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I55" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>30</v>
@@ -1611,19 +1597,19 @@
         <f aca="false">IF(D56=0,"",12*D56)</f>
         <v/>
       </c>
+      <c r="F56" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G56" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I56" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>36</v>
@@ -1632,19 +1618,19 @@
         <f aca="false">IF(D57=0,"",12*D57)</f>
         <v/>
       </c>
+      <c r="F57" s="1" t="n">
+        <v>0.1244</v>
+      </c>
       <c r="G57" s="1" t="n">
-        <v>0.1244</v>
-      </c>
-      <c r="I57" s="1" t="n">
         <v>0.1593</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>6</v>
@@ -1653,19 +1639,19 @@
         <f aca="false">IF(D58=0,"",12*D58)</f>
         <v/>
       </c>
+      <c r="F58" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G58" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I58" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>9</v>
@@ -1674,19 +1660,19 @@
         <f aca="false">IF(D59=0,"",12*D59)</f>
         <v/>
       </c>
+      <c r="F59" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G59" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I59" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>12</v>
@@ -1695,19 +1681,19 @@
         <f aca="false">IF(D60=0,"",12*D60)</f>
         <v/>
       </c>
+      <c r="F60" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G60" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I60" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>15</v>
@@ -1716,19 +1702,19 @@
         <f aca="false">IF(D61=0,"",12*D61)</f>
         <v/>
       </c>
+      <c r="F61" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G61" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I61" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>18</v>
@@ -1737,19 +1723,19 @@
         <f aca="false">IF(D62=0,"",12*D62)</f>
         <v/>
       </c>
+      <c r="F62" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G62" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I62" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>24</v>
@@ -1758,19 +1744,19 @@
         <f aca="false">IF(D63=0,"",12*D63)</f>
         <v/>
       </c>
+      <c r="F63" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G63" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I63" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>30</v>
@@ -1779,19 +1765,19 @@
         <f aca="false">IF(D64=0,"",12*D64)</f>
         <v/>
       </c>
+      <c r="F64" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G64" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I64" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>36</v>
@@ -1800,19 +1786,19 @@
         <f aca="false">IF(D65=0,"",12*D65)</f>
         <v/>
       </c>
+      <c r="F65" s="1" t="n">
+        <v>0.1228</v>
+      </c>
       <c r="G65" s="1" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="I65" s="1" t="n">
         <v>0.1579</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>6</v>
@@ -1821,19 +1807,19 @@
         <f aca="false">IF(D66=0,"",12*D66)</f>
         <v/>
       </c>
+      <c r="F66" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G66" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I66" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>9</v>
@@ -1842,19 +1828,19 @@
         <f aca="false">IF(D67=0,"",12*D67)</f>
         <v/>
       </c>
+      <c r="F67" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G67" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I67" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>12</v>
@@ -1863,19 +1849,19 @@
         <f aca="false">IF(D68=0,"",12*D68)</f>
         <v/>
       </c>
+      <c r="F68" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G68" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I68" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>15</v>
@@ -1884,19 +1870,19 @@
         <f aca="false">IF(D69=0,"",12*D69)</f>
         <v/>
       </c>
+      <c r="F69" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G69" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I69" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>18</v>
@@ -1905,19 +1891,19 @@
         <f aca="false">IF(D70=0,"",12*D70)</f>
         <v/>
       </c>
+      <c r="F70" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G70" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I70" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>24</v>
@@ -1926,19 +1912,19 @@
         <f aca="false">IF(D71=0,"",12*D71)</f>
         <v/>
       </c>
+      <c r="F71" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G71" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I71" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>30</v>
@@ -1947,19 +1933,19 @@
         <f aca="false">IF(D72=0,"",12*D72)</f>
         <v/>
       </c>
+      <c r="F72" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G72" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I72" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>36</v>
@@ -1968,19 +1954,19 @@
         <f aca="false">IF(D73=0,"",12*D73)</f>
         <v/>
       </c>
+      <c r="F73" s="1" t="n">
+        <v>0.1319</v>
+      </c>
       <c r="G73" s="1" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="I73" s="1" t="n">
         <v>0.1703</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>6</v>
@@ -1989,19 +1975,19 @@
         <f aca="false">IF(D74=0,"",12*D74)</f>
         <v/>
       </c>
+      <c r="F74" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G74" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I74" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>9</v>
@@ -2010,19 +1996,19 @@
         <f aca="false">IF(D75=0,"",12*D75)</f>
         <v/>
       </c>
+      <c r="F75" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G75" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I75" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>12</v>
@@ -2031,19 +2017,19 @@
         <f aca="false">IF(D76=0,"",12*D76)</f>
         <v/>
       </c>
+      <c r="F76" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G76" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I76" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>15</v>
@@ -2052,19 +2038,19 @@
         <f aca="false">IF(D77=0,"",12*D77)</f>
         <v/>
       </c>
+      <c r="F77" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G77" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I77" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>18</v>
@@ -2073,19 +2059,19 @@
         <f aca="false">IF(D78=0,"",12*D78)</f>
         <v/>
       </c>
+      <c r="F78" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G78" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I78" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>24</v>
@@ -2094,19 +2080,19 @@
         <f aca="false">IF(D79=0,"",12*D79)</f>
         <v/>
       </c>
+      <c r="F79" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G79" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I79" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>30</v>
@@ -2115,19 +2101,19 @@
         <f aca="false">IF(D80=0,"",12*D80)</f>
         <v/>
       </c>
+      <c r="F80" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G80" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I80" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>36</v>
@@ -2136,19 +2122,19 @@
         <f aca="false">IF(D81=0,"",12*D81)</f>
         <v/>
       </c>
+      <c r="F81" s="1" t="n">
+        <v>0.132</v>
+      </c>
       <c r="G81" s="1" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I81" s="1" t="n">
         <v>0.171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>6</v>
@@ -2157,19 +2143,19 @@
         <f aca="false">IF(D82=0,"",12*D82)</f>
         <v/>
       </c>
+      <c r="F82" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G82" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I82" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>9</v>
@@ -2178,19 +2164,19 @@
         <f aca="false">IF(D83=0,"",12*D83)</f>
         <v/>
       </c>
+      <c r="F83" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G83" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I83" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>12</v>
@@ -2199,19 +2185,19 @@
         <f aca="false">IF(D84=0,"",12*D84)</f>
         <v/>
       </c>
+      <c r="F84" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G84" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I84" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>15</v>
@@ -2220,19 +2206,19 @@
         <f aca="false">IF(D85=0,"",12*D85)</f>
         <v/>
       </c>
+      <c r="F85" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G85" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I85" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>18</v>
@@ -2241,19 +2227,19 @@
         <f aca="false">IF(D86=0,"",12*D86)</f>
         <v/>
       </c>
+      <c r="F86" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G86" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I86" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>24</v>
@@ -2262,19 +2248,19 @@
         <f aca="false">IF(D87=0,"",12*D87)</f>
         <v/>
       </c>
+      <c r="F87" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G87" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I87" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>30</v>
@@ -2283,19 +2269,19 @@
         <f aca="false">IF(D88=0,"",12*D88)</f>
         <v/>
       </c>
+      <c r="F88" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G88" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I88" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>36</v>
@@ -2304,19 +2290,19 @@
         <f aca="false">IF(D89=0,"",12*D89)</f>
         <v/>
       </c>
+      <c r="F89" s="1" t="n">
+        <v>0.1337</v>
+      </c>
       <c r="G89" s="1" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I89" s="1" t="n">
         <v>0.1781</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>6</v>
@@ -2328,19 +2314,19 @@
         <f aca="false">IF(D90=0,"",12*D90)</f>
         <v>139.2</v>
       </c>
+      <c r="F90" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G90" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I90" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>9</v>
@@ -2352,19 +2338,19 @@
         <f aca="false">IF(D91=0,"",12*D91)</f>
         <v>172.08</v>
       </c>
+      <c r="F91" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G91" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I91" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>12</v>
@@ -2376,19 +2362,19 @@
         <f aca="false">IF(D92=0,"",12*D92)</f>
         <v>203.16</v>
       </c>
+      <c r="F92" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G92" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I92" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>15</v>
@@ -2400,19 +2386,19 @@
         <f aca="false">IF(D93=0,"",12*D93)</f>
         <v>232.56</v>
       </c>
+      <c r="F93" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G93" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I93" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>18</v>
@@ -2424,19 +2410,19 @@
         <f aca="false">IF(D94=0,"",12*D94)</f>
         <v>259.56</v>
       </c>
+      <c r="F94" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G94" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I94" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>24</v>
@@ -2448,19 +2434,19 @@
         <f aca="false">IF(D95=0,"",12*D95)</f>
         <v>320.64</v>
       </c>
+      <c r="F95" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G95" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I95" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>30</v>
@@ -2472,19 +2458,19 @@
         <f aca="false">IF(D96=0,"",12*D96)</f>
         <v>354.12</v>
       </c>
+      <c r="F96" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G96" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I96" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>36</v>
@@ -2496,19 +2482,19 @@
         <f aca="false">IF(D97=0,"",12*D97)</f>
         <v>401.4</v>
       </c>
+      <c r="F97" s="1" t="n">
+        <v>0.13442</v>
+      </c>
       <c r="G97" s="1" t="n">
-        <v>0.13442</v>
-      </c>
-      <c r="I97" s="1" t="n">
         <v>0.17978</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>6</v>
@@ -2517,19 +2503,19 @@
         <f aca="false">IF(D98=0,"",12*D98)</f>
         <v/>
       </c>
+      <c r="F98" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G98" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I98" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>9</v>
@@ -2538,19 +2524,19 @@
         <f aca="false">IF(D99=0,"",12*D99)</f>
         <v/>
       </c>
+      <c r="F99" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G99" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I99" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>12</v>
@@ -2559,19 +2545,19 @@
         <f aca="false">IF(D100=0,"",12*D100)</f>
         <v/>
       </c>
+      <c r="F100" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G100" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I100" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>15</v>
@@ -2580,19 +2566,19 @@
         <f aca="false">IF(D101=0,"",12*D101)</f>
         <v/>
       </c>
+      <c r="F101" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G101" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I101" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>18</v>
@@ -2601,19 +2587,19 @@
         <f aca="false">IF(D102=0,"",12*D102)</f>
         <v/>
       </c>
+      <c r="F102" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G102" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I102" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>24</v>
@@ -2622,19 +2608,19 @@
         <f aca="false">IF(D103=0,"",12*D103)</f>
         <v/>
       </c>
+      <c r="F103" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G103" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I103" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>30</v>
@@ -2643,19 +2629,19 @@
         <f aca="false">IF(D104=0,"",12*D104)</f>
         <v/>
       </c>
+      <c r="F104" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G104" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I104" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>36</v>
@@ -2664,19 +2650,19 @@
         <f aca="false">IF(D105=0,"",12*D105)</f>
         <v/>
       </c>
+      <c r="F105" s="1" t="n">
+        <v>0.1353</v>
+      </c>
       <c r="G105" s="1" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="I105" s="1" t="n">
         <v>0.1853</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>6</v>
@@ -2688,19 +2674,19 @@
         <f aca="false">IF(D106=0,"",12*D106)</f>
         <v>145.92</v>
       </c>
+      <c r="F106" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G106" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I106" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>9</v>
@@ -2712,19 +2698,19 @@
         <f aca="false">IF(D107=0,"",12*D107)</f>
         <v>185.16</v>
       </c>
+      <c r="F107" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G107" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I107" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>12</v>
@@ -2736,19 +2722,19 @@
         <f aca="false">IF(D108=0,"",12*D108)</f>
         <v>223.32</v>
       </c>
+      <c r="F108" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G108" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I108" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>15</v>
@@ -2760,19 +2746,19 @@
         <f aca="false">IF(D109=0,"",12*D109)</f>
         <v>260.4</v>
       </c>
+      <c r="F109" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G109" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I109" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>18</v>
@@ -2784,19 +2770,19 @@
         <f aca="false">IF(D110=0,"",12*D110)</f>
         <v>295.68</v>
       </c>
+      <c r="F110" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G110" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I110" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>24</v>
@@ -2808,19 +2794,19 @@
         <f aca="false">IF(D111=0,"",12*D111)</f>
         <v>372.12</v>
       </c>
+      <c r="F111" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G111" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I111" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>30</v>
@@ -2832,19 +2818,19 @@
         <f aca="false">IF(D112=0,"",12*D112)</f>
         <v>442.2</v>
       </c>
+      <c r="F112" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G112" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I112" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>36</v>
@@ -2856,19 +2842,19 @@
         <f aca="false">IF(D113=0,"",12*D113)</f>
         <v>511.44</v>
       </c>
+      <c r="F113" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G113" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I113" s="1" t="n">
         <v>0.18209</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>6</v>
@@ -2877,19 +2863,19 @@
         <f aca="false">IF(D114=0,"",12*D114)</f>
         <v/>
       </c>
+      <c r="F114" s="1" t="n">
+        <v>0.13601</v>
+      </c>
       <c r="G114" s="1" t="n">
-        <v>0.13601</v>
-      </c>
-      <c r="I114" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>9</v>
@@ -2898,19 +2884,19 @@
         <f aca="false">IF(D115=0,"",12*D115)</f>
         <v/>
       </c>
+      <c r="F115" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G115" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I115" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>12</v>
@@ -2919,19 +2905,19 @@
         <f aca="false">IF(D116=0,"",12*D116)</f>
         <v/>
       </c>
+      <c r="F116" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G116" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I116" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>15</v>
@@ -2940,19 +2926,19 @@
         <f aca="false">IF(D117=0,"",12*D117)</f>
         <v/>
       </c>
+      <c r="F117" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G117" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I117" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>18</v>
@@ -2961,19 +2947,19 @@
         <f aca="false">IF(D118=0,"",12*D118)</f>
         <v/>
       </c>
+      <c r="F118" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G118" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I118" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>24</v>
@@ -2982,19 +2968,19 @@
         <f aca="false">IF(D119=0,"",12*D119)</f>
         <v/>
       </c>
+      <c r="F119" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G119" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I119" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>30</v>
@@ -3003,19 +2989,19 @@
         <f aca="false">IF(D120=0,"",12*D120)</f>
         <v/>
       </c>
+      <c r="F120" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G120" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I120" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>36</v>
@@ -3024,19 +3010,19 @@
         <f aca="false">IF(D121=0,"",12*D121)</f>
         <v/>
       </c>
+      <c r="F121" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G121" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I121" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>6</v>
@@ -3045,19 +3031,19 @@
         <f aca="false">IF(D122=0,"",12*D122)</f>
         <v/>
       </c>
+      <c r="F122" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G122" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I122" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>9</v>
@@ -3066,19 +3052,19 @@
         <f aca="false">IF(D123=0,"",12*D123)</f>
         <v/>
       </c>
+      <c r="F123" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G123" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I123" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>12</v>
@@ -3087,19 +3073,19 @@
         <f aca="false">IF(D124=0,"",12*D124)</f>
         <v/>
       </c>
+      <c r="F124" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G124" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I124" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>15</v>
@@ -3108,19 +3094,19 @@
         <f aca="false">IF(D125=0,"",12*D125)</f>
         <v/>
       </c>
+      <c r="F125" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G125" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I125" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>18</v>
@@ -3129,19 +3115,19 @@
         <f aca="false">IF(D126=0,"",12*D126)</f>
         <v/>
       </c>
+      <c r="F126" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G126" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I126" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>24</v>
@@ -3150,19 +3136,19 @@
         <f aca="false">IF(D127=0,"",12*D127)</f>
         <v/>
       </c>
+      <c r="F127" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G127" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I127" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>30</v>
@@ -3171,19 +3157,19 @@
         <f aca="false">IF(D128=0,"",12*D128)</f>
         <v/>
       </c>
+      <c r="F128" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G128" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I128" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>36</v>
@@ -3192,19 +3178,19 @@
         <f aca="false">IF(D129=0,"",12*D129)</f>
         <v/>
       </c>
+      <c r="F129" s="1" t="n">
+        <v>0.147</v>
+      </c>
       <c r="G129" s="1" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="I129" s="1" t="n">
         <v>0.1841</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>6</v>
@@ -3213,19 +3199,19 @@
         <f aca="false">IF(D130=0,"",12*D130)</f>
         <v/>
       </c>
+      <c r="F130" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G130" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I130" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>9</v>
@@ -3234,19 +3220,19 @@
         <f aca="false">IF(D131=0,"",12*D131)</f>
         <v/>
       </c>
+      <c r="F131" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G131" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I131" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>12</v>
@@ -3255,19 +3241,19 @@
         <f aca="false">IF(D132=0,"",12*D132)</f>
         <v/>
       </c>
+      <c r="F132" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G132" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I132" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>15</v>
@@ -3276,19 +3262,19 @@
         <f aca="false">IF(D133=0,"",12*D133)</f>
         <v/>
       </c>
+      <c r="F133" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G133" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I133" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>18</v>
@@ -3297,19 +3283,19 @@
         <f aca="false">IF(D134=0,"",12*D134)</f>
         <v/>
       </c>
+      <c r="F134" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G134" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I134" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>24</v>
@@ -3318,19 +3304,19 @@
         <f aca="false">IF(D135=0,"",12*D135)</f>
         <v/>
       </c>
+      <c r="F135" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G135" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I135" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>30</v>
@@ -3339,19 +3325,19 @@
         <f aca="false">IF(D136=0,"",12*D136)</f>
         <v/>
       </c>
+      <c r="F136" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G136" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I136" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>36</v>
@@ -3360,19 +3346,19 @@
         <f aca="false">IF(D137=0,"",12*D137)</f>
         <v/>
       </c>
+      <c r="F137" s="1" t="n">
+        <v>0.1615</v>
+      </c>
       <c r="G137" s="1" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="I137" s="1" t="n">
         <v>0.2228</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>6</v>
@@ -3381,19 +3367,19 @@
         <f aca="false">IF(D138=0,"",12*D138)</f>
         <v/>
       </c>
+      <c r="F138" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G138" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I138" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>9</v>
@@ -3402,19 +3388,19 @@
         <f aca="false">IF(D139=0,"",12*D139)</f>
         <v/>
       </c>
+      <c r="F139" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G139" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I139" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>12</v>
@@ -3423,19 +3409,19 @@
         <f aca="false">IF(D140=0,"",12*D140)</f>
         <v/>
       </c>
+      <c r="F140" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G140" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I140" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>15</v>
@@ -3444,19 +3430,19 @@
         <f aca="false">IF(D141=0,"",12*D141)</f>
         <v/>
       </c>
+      <c r="F141" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G141" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I141" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>18</v>
@@ -3465,19 +3451,19 @@
         <f aca="false">IF(D142=0,"",12*D142)</f>
         <v/>
       </c>
+      <c r="F142" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G142" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I142" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>24</v>
@@ -3486,19 +3472,19 @@
         <f aca="false">IF(D143=0,"",12*D143)</f>
         <v/>
       </c>
+      <c r="F143" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G143" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I143" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>30</v>
@@ -3507,19 +3493,19 @@
         <f aca="false">IF(D144=0,"",12*D144)</f>
         <v/>
       </c>
+      <c r="F144" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G144" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I144" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>36</v>
@@ -3528,19 +3514,19 @@
         <f aca="false">IF(D145=0,"",12*D145)</f>
         <v/>
       </c>
+      <c r="F145" s="1" t="n">
+        <v>0.1828</v>
+      </c>
       <c r="G145" s="1" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="I145" s="1" t="n">
         <v>0.246</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>6</v>
@@ -3552,19 +3538,19 @@
         <f aca="false">IF(D146=0,"",12*D146)</f>
         <v>160.68</v>
       </c>
+      <c r="F146" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G146" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I146" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>9</v>
@@ -3576,19 +3562,19 @@
         <f aca="false">IF(D147=0,"",12*D147)</f>
         <v>204</v>
       </c>
+      <c r="F147" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G147" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I147" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>12</v>
@@ -3600,19 +3586,19 @@
         <f aca="false">IF(D148=0,"",12*D148)</f>
         <v>246.24</v>
       </c>
+      <c r="F148" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G148" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I148" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>15</v>
@@ -3624,19 +3610,19 @@
         <f aca="false">IF(D149=0,"",12*D149)</f>
         <v>286.68</v>
       </c>
+      <c r="F149" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G149" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I149" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>18</v>
@@ -3648,19 +3634,19 @@
         <f aca="false">IF(D150=0,"",12*D150)</f>
         <v>326.64</v>
       </c>
+      <c r="F150" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G150" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I150" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>24</v>
@@ -3672,19 +3658,19 @@
         <f aca="false">IF(D151=0,"",12*D151)</f>
         <v>410.64</v>
       </c>
+      <c r="F151" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G151" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I151" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>30</v>
@@ -3696,19 +3682,19 @@
         <f aca="false">IF(D152=0,"",12*D152)</f>
         <v>487.2</v>
       </c>
+      <c r="F152" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G152" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I152" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>36</v>
@@ -3720,19 +3706,19 @@
         <f aca="false">IF(D153=0,"",12*D153)</f>
         <v>564.48</v>
       </c>
+      <c r="F153" s="1" t="n">
+        <v>0.20676</v>
+      </c>
       <c r="G153" s="1" t="n">
-        <v>0.20676</v>
-      </c>
-      <c r="I153" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>6</v>
@@ -3744,19 +3730,19 @@
         <f aca="false">IF(D154=0,"",12*D154)</f>
         <v>173.64</v>
       </c>
+      <c r="F154" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G154" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I154" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>9</v>
@@ -3768,19 +3754,19 @@
         <f aca="false">IF(D155=0,"",12*D155)</f>
         <v>220.2</v>
       </c>
+      <c r="F155" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G155" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I155" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>12</v>
@@ -3792,19 +3778,19 @@
         <f aca="false">IF(D156=0,"",12*D156)</f>
         <v>265.56</v>
       </c>
+      <c r="F156" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G156" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I156" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>15</v>
@@ -3816,19 +3802,19 @@
         <f aca="false">IF(D157=0,"",12*D157)</f>
         <v>308.52</v>
       </c>
+      <c r="F157" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G157" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I157" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>18</v>
@@ -3840,19 +3826,19 @@
         <f aca="false">IF(D158=0,"",12*D158)</f>
         <v>352.8</v>
       </c>
+      <c r="F158" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G158" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I158" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>24</v>
@@ -3864,19 +3850,19 @@
         <f aca="false">IF(D159=0,"",12*D159)</f>
         <v>445.44</v>
       </c>
+      <c r="F159" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G159" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I159" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>30</v>
@@ -3888,19 +3874,19 @@
         <f aca="false">IF(D160=0,"",12*D160)</f>
         <v>529.32</v>
       </c>
+      <c r="F160" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G160" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I160" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>36</v>
@@ -3912,19 +3898,19 @@
         <f aca="false">IF(D161=0,"",12*D161)</f>
         <v>615.6</v>
       </c>
+      <c r="F161" s="1" t="n">
+        <v>0.16956</v>
+      </c>
       <c r="G161" s="1" t="n">
-        <v>0.16956</v>
-      </c>
-      <c r="I161" s="1" t="n">
         <v>0.21456</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>6</v>
@@ -3936,19 +3922,19 @@
         <f aca="false">IF(D162=0,"",12*D162)</f>
         <v>194.28</v>
       </c>
+      <c r="F162" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G162" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I162" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>9</v>
@@ -3960,19 +3946,19 @@
         <f aca="false">IF(D163=0,"",12*D163)</f>
         <v>245.76</v>
       </c>
+      <c r="F163" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G163" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I163" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>12</v>
@@ -3984,19 +3970,19 @@
         <f aca="false">IF(D164=0,"",12*D164)</f>
         <v>295.68</v>
       </c>
+      <c r="F164" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G164" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I164" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>15</v>
@@ -4008,19 +3994,19 @@
         <f aca="false">IF(D165=0,"",12*D165)</f>
         <v>343.2</v>
       </c>
+      <c r="F165" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G165" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I165" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>18</v>
@@ -4032,19 +4018,19 @@
         <f aca="false">IF(D166=0,"",12*D166)</f>
         <v>392.04</v>
       </c>
+      <c r="F166" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G166" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I166" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>24</v>
@@ -4056,19 +4042,19 @@
         <f aca="false">IF(D167=0,"",12*D167)</f>
         <v>495</v>
       </c>
+      <c r="F167" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G167" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I167" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>30</v>
@@ -4080,19 +4066,19 @@
         <f aca="false">IF(D168=0,"",12*D168)</f>
         <v>590.88</v>
       </c>
+      <c r="F168" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G168" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I168" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>36</v>
@@ -4104,115 +4090,187 @@
         <f aca="false">IF(D169=0,"",12*D169)</f>
         <v>687.36</v>
       </c>
+      <c r="F169" s="1" t="n">
+        <v>0.16354</v>
+      </c>
       <c r="G169" s="1" t="n">
-        <v>0.16354</v>
-      </c>
-      <c r="I169" s="1" t="n">
         <v>0.20806</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="1" t="str">
+      <c r="D170" s="1" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="E170" s="1" t="n">
         <f aca="false">IF(D170=0,"",12*D170)</f>
-        <v/>
+        <v>191.52</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G170" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E171" s="1" t="str">
+      <c r="D171" s="1" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="E171" s="1" t="n">
         <f aca="false">IF(D171=0,"",12*D171)</f>
-        <v/>
+        <v>240.24</v>
+      </c>
+      <c r="F171" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E172" s="1" t="str">
+      <c r="D172" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="E172" s="1" t="n">
         <f aca="false">IF(D172=0,"",12*D172)</f>
-        <v/>
+        <v>287.16</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E173" s="1" t="str">
+      <c r="D173" s="1" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="E173" s="1" t="n">
         <f aca="false">IF(D173=0,"",12*D173)</f>
-        <v/>
+        <v>331.32</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E174" s="1" t="str">
+      <c r="D174" s="1" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E174" s="1" t="n">
         <f aca="false">IF(D174=0,"",12*D174)</f>
-        <v/>
+        <v>376.8</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E175" s="1" t="str">
+      <c r="D175" s="1" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="E175" s="1" t="n">
         <f aca="false">IF(D175=0,"",12*D175)</f>
-        <v/>
+        <v>473.52</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E176" s="1" t="str">
+      <c r="D176" s="1" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="E176" s="1" t="n">
         <f aca="false">IF(D176=0,"",12*D176)</f>
-        <v/>
+        <v>562.68</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E177" s="1" t="str">
+      <c r="D177" s="1" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="E177" s="1" t="n">
         <f aca="false">IF(D177=0,"",12*D177)</f>
-        <v/>
+        <v>652.44</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>0.15786</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>0.20646</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
